--- a/data/134/DEUSTATIS/old/Foreign trade - total.xlsx
+++ b/data/134/DEUSTATIS/old/Foreign trade - total.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="47">
   <si>
     <t>Exports and imports (foreign trade): Germany, months</t>
   </si>
@@ -152,7 +152,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:13:04</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:09:04</t>
   </si>
 </sst>
 </file>
@@ -7315,7 +7315,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="262" max="16384" style="7" width="12.7109375" collapsed="true"/>
+    <col min="265" max="16384" style="7" width="12.7109375" collapsed="true"/>
+    <col min="264" max="264" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
+    <col min="263" max="263" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
+    <col min="262" max="262" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="261" max="261" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="260" max="260" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="259" max="259" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
@@ -7324,11 +7327,11 @@
     <col min="256" max="256" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="255" max="255" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
     <col min="254" max="254" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
-    <col min="253" max="253" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
+    <col min="253" max="253" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
     <col min="252" max="252" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="251" max="251" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="250" max="250" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
-    <col min="249" max="249" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
+    <col min="249" max="249" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="248" max="248" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
     <col min="247" max="247" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
     <col min="246" max="246" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
@@ -7817,6 +7820,9 @@
     <col min="259" max="259" width="11.09375" customWidth="true"/>
     <col min="260" max="260" width="11.09375" customWidth="true"/>
     <col min="261" max="261" width="11.09375" customWidth="true"/>
+    <col min="262" max="262" width="11.09375" customWidth="true"/>
+    <col min="263" max="263" width="11.09375" customWidth="true"/>
+    <col min="264" max="264" width="11.09375" customWidth="true"/>
     <col min="1" max="1" width="14.859375" style="7" customWidth="true"/>
   </cols>
   <sheetData>
@@ -10257,40 +10263,40 @@
         <v>9.8062559E7</v>
       </c>
       <c r="II8" t="n" s="10">
-        <v>1.06630873E8</v>
+        <v>1.06611342E8</v>
       </c>
       <c r="IJ8" t="n" s="10">
-        <v>1.09162688E8</v>
+        <v>1.09137231E8</v>
       </c>
       <c r="IK8" t="n" s="10">
-        <v>1.08931463E8</v>
+        <v>1.09270787E8</v>
       </c>
       <c r="IL8" t="n" s="10">
-        <v>7.5728508E7</v>
+        <v>7.5919706E7</v>
       </c>
       <c r="IM8" t="n" s="10">
-        <v>8.0213997E7</v>
+        <v>8.0578119E7</v>
       </c>
       <c r="IN8" t="n" s="10">
-        <v>9.6029191E7</v>
+        <v>9.5965247E7</v>
       </c>
       <c r="IO8" t="n" s="10">
-        <v>1.0232721E8</v>
+        <v>1.02776871E8</v>
       </c>
       <c r="IP8" t="n" s="10">
-        <v>9.1258939E7</v>
+        <v>9.1242678E7</v>
       </c>
       <c r="IQ8" t="n" s="10">
-        <v>1.09854671E8</v>
+        <v>1.09942262E8</v>
       </c>
       <c r="IR8" t="n" s="10">
-        <v>1.12190653E8</v>
+        <v>1.12193388E8</v>
       </c>
       <c r="IS8" t="n" s="10">
-        <v>1.11968593E8</v>
+        <v>1.1207914E8</v>
       </c>
       <c r="IT8" t="n" s="10">
-        <v>1.00983891E8</v>
+        <v>1.01211694E8</v>
       </c>
       <c r="IU8" t="n" s="10">
         <v>9.8381344E7</v>
@@ -10299,28 +10305,28 @@
         <v>1.07755673E8</v>
       </c>
       <c r="IW8" t="n" s="10">
-        <v>1.26910373E8</v>
+        <v>1.27123733E8</v>
       </c>
       <c r="IX8" t="n" s="10">
         <v>1.11888961E8</v>
       </c>
       <c r="IY8" t="n" s="10">
-        <v>1.09544134E8</v>
+        <v>1.09536669E8</v>
       </c>
       <c r="IZ8" t="n" s="10">
-        <v>1.18662778E8</v>
+        <v>1.18682198E8</v>
       </c>
       <c r="JA8" t="n" s="10">
-        <v>1.15075701E8</v>
-      </c>
-      <c r="JB8" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="JC8" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="JD8" t="s" s="10">
-        <v>43</v>
+        <v>1.15134405E8</v>
+      </c>
+      <c r="JB8" t="n" s="10">
+        <v>1.04506274E8</v>
+      </c>
+      <c r="JC8" t="n" s="10">
+        <v>1.1786407E8</v>
+      </c>
+      <c r="JD8" t="n" s="10">
+        <v>1.21389E8</v>
       </c>
       <c r="JE8" t="s" s="10">
         <v>43</v>
@@ -11057,40 +11063,40 @@
         <v>8.2932951E7</v>
       </c>
       <c r="II9" t="n" s="10">
-        <v>9.2918459E7</v>
+        <v>9.2999905E7</v>
       </c>
       <c r="IJ9" t="n" s="10">
-        <v>8.8881064E7</v>
+        <v>8.8885691E7</v>
       </c>
       <c r="IK9" t="n" s="10">
-        <v>9.1707648E7</v>
+        <v>9.2121896E7</v>
       </c>
       <c r="IL9" t="n" s="10">
-        <v>7.2280743E7</v>
+        <v>7.2252825E7</v>
       </c>
       <c r="IM9" t="n" s="10">
-        <v>7.3260711E7</v>
+        <v>7.3293101E7</v>
       </c>
       <c r="IN9" t="n" s="10">
-        <v>8.0635773E7</v>
+        <v>8.066022E7</v>
       </c>
       <c r="IO9" t="n" s="10">
-        <v>8.3112893E7</v>
+        <v>8.3122358E7</v>
       </c>
       <c r="IP9" t="n" s="10">
-        <v>7.9404957E7</v>
+        <v>7.9298579E7</v>
       </c>
       <c r="IQ9" t="n" s="10">
-        <v>8.9675156E7</v>
+        <v>8.993499E7</v>
       </c>
       <c r="IR9" t="n" s="10">
-        <v>9.253146E7</v>
+        <v>9.2543398E7</v>
       </c>
       <c r="IS9" t="n" s="10">
-        <v>9.5280168E7</v>
+        <v>9.5292809E7</v>
       </c>
       <c r="IT9" t="n" s="10">
-        <v>8.5654881E7</v>
+        <v>8.6096028E7</v>
       </c>
       <c r="IU9" t="n" s="10">
         <v>8.4230386E7</v>
@@ -11099,28 +11105,28 @@
         <v>8.9868774E7</v>
       </c>
       <c r="IW9" t="n" s="10">
-        <v>1.06341479E8</v>
+        <v>1.06341478E8</v>
       </c>
       <c r="IX9" t="n" s="10">
-        <v>9.6575409E7</v>
+        <v>9.6575408E7</v>
       </c>
       <c r="IY9" t="n" s="10">
-        <v>9.7050886E7</v>
+        <v>9.7171555E7</v>
       </c>
       <c r="IZ9" t="n" s="10">
-        <v>1.02501855E8</v>
+        <v>1.02742979E8</v>
       </c>
       <c r="JA9" t="n" s="10">
-        <v>9.7171607E7</v>
-      </c>
-      <c r="JB9" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="JC9" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="JD9" t="s" s="10">
-        <v>43</v>
+        <v>9.7289688E7</v>
+      </c>
+      <c r="JB9" t="n" s="10">
+        <v>9.2804589E7</v>
+      </c>
+      <c r="JC9" t="n" s="10">
+        <v>1.01881171E8</v>
+      </c>
+      <c r="JD9" t="n" s="10">
+        <v>1.08672771E8</v>
       </c>
       <c r="JE9" t="s" s="10">
         <v>43</v>
@@ -11194,7 +11200,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:13:13&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:09:11&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>